--- a/www/user_templates/metadata_template.xlsx
+++ b/www/user_templates/metadata_template.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sadkins/git/gEAR/www/user_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258C8A17-56B5-F944-A960-69505F931C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="26680" windowHeight="18080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="metadata" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="metadata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,70 +27,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filled_by_geo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A concise title of the dataset. This typically includes the dataset type, the organism studied, and conditions  examined.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA-seq analysis of neonatal mouse cochlear hair cells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A concise description of the experiments performed. Describing how the data was produced.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This study examined transcripts that are enriched in neonatal mouse cochlear hair cells. Hair cells were purified by FACS sorting for GFP fluorescence from the cochleas of transgenic mice in which the endogenous Atoh1 gene was fused with GFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dataset_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At a high-level, what type of expression data is being uploaded?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulk-rnaseq, single-cell-rnaseq, microarray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annotation_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensembl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference annotation database.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annotation_release_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Release number of reference annotation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geo_accession</t>
+    <t>field</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>is_required</t>
+  </si>
+  <si>
+    <t>filled_by_geo</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>A concise title of the dataset. This typically includes the dataset type, the organism studied, and conditions  examined.</t>
+  </si>
+  <si>
+    <t>RNA-seq analysis of neonatal mouse cochlear hair cells</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>A concise description of the experiments performed. Describing how the data was produced.</t>
+  </si>
+  <si>
+    <t>This study examined transcripts that are enriched in neonatal mouse cochlear hair cells. Hair cells were purified by FACS sorting for GFP fluorescence from the cochleas of transgenic mice in which the endogenous Atoh1 gene was fused with GFP</t>
+  </si>
+  <si>
+    <t>dataset_type</t>
+  </si>
+  <si>
+    <t>At a high-level, what type of expression data is being uploaded?</t>
+  </si>
+  <si>
+    <t>bulk-rnaseq, single-cell-rnaseq, microarray</t>
+  </si>
+  <si>
+    <t>annotation_source</t>
+  </si>
+  <si>
+    <t>Ensembl</t>
+  </si>
+  <si>
+    <t>Reference annotation database.</t>
+  </si>
+  <si>
+    <t>annotation_release_number</t>
+  </si>
+  <si>
+    <t>Release number of reference annotation.</t>
+  </si>
+  <si>
+    <t>geo_accession</t>
   </si>
   <si>
     <r>
@@ -100,14 +105,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <i val="true"/>
+        <b/>
+        <i/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Optional:</t>
+      <t>Optional:</t>
     </r>
     <r>
       <rPr>
@@ -120,13 +125,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">If you supply this ID, you can leave rows 8-18 empty. The gEAR uploader will automatically populate fields in rows 8-18.</t>
+      <t>If you supply this ID, you can leave rows 8-18 empty. The gEAR uploader will automatically populate fields in rows 8-18.</t>
     </r>
     <r>
       <rPr>
@@ -139,113 +144,110 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">GSE65633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email address of the contact person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">akgroves@bcm.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of institution under which the contact person is employed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baylor College of Medicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact person for the dataset. Typically this is the principal investigator.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew,,Groves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_taxid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCBI numeric taxonomy ID assigned to organism.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample_organism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organism the data was generated from.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mus musculus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">platform_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEO platform ID. "GPLxxxx"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPL13112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instrument_model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of technology used to produce data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illumina HiSeq 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">library_selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of technology used to produce data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cDNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">library_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transcriptomic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">library_strategy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA-Seq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pubmed_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numeric Pubmed ID.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Topics, categories, or subject-matter the dataset encompasses. Separate tag with a comma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouse,GTP+,cochlea,RNAseq</t>
+    <t>GSE65633</t>
+  </si>
+  <si>
+    <t>contact_email</t>
+  </si>
+  <si>
+    <t>Email address of the contact person</t>
+  </si>
+  <si>
+    <t>akgroves@bcm.edu</t>
+  </si>
+  <si>
+    <t>contact_institute</t>
+  </si>
+  <si>
+    <t>Name of institution under which the contact person is employed</t>
+  </si>
+  <si>
+    <t>Baylor College of Medicine</t>
+  </si>
+  <si>
+    <t>contact_name</t>
+  </si>
+  <si>
+    <t>Contact person for the dataset. Typically this is the principal investigator.</t>
+  </si>
+  <si>
+    <t>Andrew,,Groves</t>
+  </si>
+  <si>
+    <t>sample_taxid</t>
+  </si>
+  <si>
+    <t>NCBI numeric taxonomy ID assigned to organism.</t>
+  </si>
+  <si>
+    <t>sample_organism</t>
+  </si>
+  <si>
+    <t>Organism the data was generated from.</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>platform_id</t>
+  </si>
+  <si>
+    <t>GEO platform ID. "GPLxxxx"</t>
+  </si>
+  <si>
+    <t>GPL13112</t>
+  </si>
+  <si>
+    <t>instrument_model</t>
+  </si>
+  <si>
+    <t>Type of technology used to produce data.</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2000</t>
+  </si>
+  <si>
+    <t>library_selection</t>
+  </si>
+  <si>
+    <t>Name of technology used to produce data.</t>
+  </si>
+  <si>
+    <t>cDNA</t>
+  </si>
+  <si>
+    <t>library_source</t>
+  </si>
+  <si>
+    <t>transcriptomic</t>
+  </si>
+  <si>
+    <t>library_strategy</t>
+  </si>
+  <si>
+    <t>RNA-Seq</t>
+  </si>
+  <si>
+    <t>pubmed_id</t>
+  </si>
+  <si>
+    <t>Numeric Pubmed ID.</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Topics, categories, or subject-matter the dataset encompasses. Separate tag with a comma</t>
+  </si>
+  <si>
+    <t>Mouse,GTP+,cochlea,RNAseq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -254,22 +256,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -282,7 +269,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -309,15 +296,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -346,152 +333,95 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="double"/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -550,34 +480,362 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="56.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.22"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="57.1640625" customWidth="1"/>
+    <col min="6" max="6" width="56.1640625" customWidth="1"/>
+    <col min="7" max="1025" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +856,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -615,7 +873,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="69.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -651,7 +909,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -668,7 +926,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>16</v>
       </c>
@@ -687,7 +945,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
@@ -699,12 +957,12 @@
       <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="13">
         <v>93</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="69.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -719,7 +977,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -738,7 +996,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -757,7 +1015,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="28.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -776,7 +1034,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
@@ -790,12 +1048,12 @@
       <c r="E11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="7">
         <v>10090</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -812,7 +1070,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -829,7 +1087,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -846,7 +1104,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -863,7 +1121,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
@@ -878,7 +1136,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>49</v>
       </c>
@@ -893,7 +1151,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -905,12 +1163,12 @@
       <c r="E18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="7">
         <v>25855195</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" s="23" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" s="23" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
@@ -925,60 +1183,45 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation allowBlank="false" operator="greaterThan" prompt="Please enter a title" promptTitle="This field is required" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B2" type="textLength">
+    <dataValidation type="textLength" operator="greaterThan" showDropDown="1" showInputMessage="1" showErrorMessage="1" promptTitle="This field is required" prompt="Please enter a title" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" prompt="Please enter a summary" promptTitle="This field is required" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B3" type="textLength">
+    <dataValidation type="textLength" operator="greaterThan" showDropDown="1" showInputMessage="1" showErrorMessage="1" promptTitle="This field is required" prompt="Please enter a summary" sqref="B3" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" prompt="Please select an option from the list" promptTitle="This field is required" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5" type="list">
+    <dataValidation type="list" operator="greaterThan" showInputMessage="1" showErrorMessage="1" promptTitle="This field is required" prompt="Please select an option from the list" sqref="B5" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Genbank,Ensembl"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" prompt="Please enter the release number" promptTitle="This field is required" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B6" type="whole">
+    <dataValidation type="whole" operator="greaterThan" showDropDown="1" showInputMessage="1" showErrorMessage="1" promptTitle="This field is required" prompt="Please enter the release number" sqref="B6" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" prompt="Please enter a contact email address" promptTitle="This field is required" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B8" type="textLength">
+    <dataValidation type="textLength" operator="greaterThan" showDropDown="1" showInputMessage="1" showErrorMessage="1" promptTitle="This field is required" prompt="Please enter a contact email address" sqref="B8" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" prompt="Please enter a contact institute" promptTitle="This field is required" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B9" type="textLength">
+    <dataValidation type="textLength" operator="greaterThan" showDropDown="1" showInputMessage="1" showErrorMessage="1" promptTitle="This field is required" prompt="Please enter a contact institute" sqref="B9" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" prompt="Please enter the contact first and last name" promptTitle="This field is required" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B10" type="textLength">
+    <dataValidation type="textLength" operator="greaterThan" showDropDown="1" showInputMessage="1" showErrorMessage="1" promptTitle="This field is required" prompt="Please enter the contact first and last name" sqref="B10" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" prompt="Please enter the organism taxnomy ID" promptTitle="This field is required" showDropDown="true" showErrorMessage="true" showInputMessage="true" sqref="B11" type="whole">
+    <dataValidation type="whole" operator="greaterThan" showDropDown="1" showInputMessage="1" showErrorMessage="1" promptTitle="This field is required" prompt="Please enter the organism taxnomy ID" sqref="B11" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="greaterThan" prompt="Please select an option from the list" promptTitle="This field is required" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4" type="list">
-      <formula1>"bulk-rnaseq,single-cell-rnaseq,microarray"</formula1>
-      <formula2>0</formula2>
+    <dataValidation type="list" operator="greaterThan" showInputMessage="1" showErrorMessage="1" promptTitle="This field is required" prompt="Please select an option from the list" sqref="B4" xr:uid="{00000000-0002-0000-0000-000008000000}">
+      <formula1>"bulk-rnaseq,single-cell-rnaseq,microarray,spatial"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>